--- a/年货节/映虚主会场.xlsx
+++ b/年货节/映虚主会场.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/git/Maat/maat_node/c2c_excelParser/1208/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/git/Maat/maat_node/c2c_excelParser/年货节/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-23180" yWindow="940" windowWidth="24000" windowHeight="37940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="秒杀" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>商品ID</t>
     <rPh sb="0" eb="1">
@@ -427,6 +427,16 @@
   </si>
   <si>
     <t>每个ID限购一个电子琴玩具/儿童电子琴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方店铺ID</t>
+    <rPh sb="0" eb="1">
+      <t>di san fang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dian pu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1293,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1305,16 +1315,17 @@
     <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.5" style="8"/>
+    <col min="5" max="5" width="18.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1328,28 +1339,31 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1362,29 +1376,32 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>94239</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>24.9</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>25.99</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="14">
+      <c r="L2" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1397,29 +1414,32 @@
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>94240</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>26.9</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>29.9</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="14">
+      <c r="L3" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1432,29 +1452,32 @@
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>94241</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>30</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>31.99</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1467,29 +1490,32 @@
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>94242</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>29</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>33.99</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L5" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1502,42 +1528,70 @@
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>94115</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>29</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>31.9</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="14">
+      <c r="L6" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6">
+        <v>33333</v>
+      </c>
       <c r="D7" s="6">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8">
+        <v>94147</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="10">
+        <v>29</v>
+      </c>
+      <c r="J7" s="10">
+        <v>31.9</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1548,31 +1602,34 @@
         <v>33333</v>
       </c>
       <c r="D8" s="6">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8">
-        <v>94147</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="8">
+        <v>94243</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="10">
         <v>29</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>31.9</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1583,31 +1640,34 @@
         <v>33333</v>
       </c>
       <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8">
-        <v>94243</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="8">
+        <v>94200</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="10">
         <v>29</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>31.9</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1618,31 +1678,34 @@
         <v>33333</v>
       </c>
       <c r="D10" s="6">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8">
-        <v>94200</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="8">
+        <v>94244</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10">
         <v>29</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <v>31.9</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="14">
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1653,87 +1716,55 @@
         <v>33333</v>
       </c>
       <c r="D11" s="6">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8">
-        <v>94244</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="8">
+        <v>94245</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="10">
         <v>29</v>
       </c>
-      <c r="I11" s="10">
-        <v>31.9</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6">
-        <v>33333</v>
-      </c>
-      <c r="D12" s="6">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8">
-        <v>94245</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10">
-        <v>29</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="J11" s="10">
         <v>32.9</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="14">
+      <c r="L11" s="14">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="F3" r:id="rId6" display="http://m.maicyt.com/proDetail?productId=94240"/>
-    <hyperlink ref="F4" r:id="rId7" display="http://m.maicyt.com/proDetail?productId=94241"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://m.maicyt.com/proDetail?productId=94242"/>
-    <hyperlink ref="F6" r:id="rId9" display="http://m.maicyt.com/proDetail?productId=94115"/>
-    <hyperlink ref="F12" r:id="rId10" display="http://m.maicyt.com/proDetail?productId=94245"/>
-    <hyperlink ref="F11" r:id="rId11" display="http://m.maicyt.com/proDetail?productId=94244"/>
-    <hyperlink ref="F10" r:id="rId12" display="http://m.maicyt.com/proDetail?productId=94200"/>
-    <hyperlink ref="F9" r:id="rId13" display="http://m.maicyt.com/proDetail?productId=94243"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://m.maicyt.com/proDetail?productId=94147"/>
-    <hyperlink ref="J12" r:id="rId15"/>
-    <hyperlink ref="J11" r:id="rId16"/>
-    <hyperlink ref="J10" r:id="rId17"/>
-    <hyperlink ref="J9" r:id="rId18"/>
-    <hyperlink ref="J8" r:id="rId19"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6" display="http://m.maicyt.com/proDetail?productId=94240"/>
+    <hyperlink ref="G4" r:id="rId7" display="http://m.maicyt.com/proDetail?productId=94241"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://m.maicyt.com/proDetail?productId=94242"/>
+    <hyperlink ref="G6" r:id="rId9" display="http://m.maicyt.com/proDetail?productId=94115"/>
+    <hyperlink ref="G11" r:id="rId10" display="http://m.maicyt.com/proDetail?productId=94245"/>
+    <hyperlink ref="G10" r:id="rId11" display="http://m.maicyt.com/proDetail?productId=94244"/>
+    <hyperlink ref="G9" r:id="rId12" display="http://m.maicyt.com/proDetail?productId=94200"/>
+    <hyperlink ref="G8" r:id="rId13" display="http://m.maicyt.com/proDetail?productId=94243"/>
+    <hyperlink ref="G7" r:id="rId14" display="http://m.maicyt.com/proDetail?productId=94147"/>
+    <hyperlink ref="K11" r:id="rId15"/>
+    <hyperlink ref="K10" r:id="rId16"/>
+    <hyperlink ref="K9" r:id="rId17"/>
+    <hyperlink ref="K8" r:id="rId18"/>
+    <hyperlink ref="K7" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
